--- a/csvtemplate.xlsx
+++ b/csvtemplate.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
-  <si>
-    <t>b</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>e</t>
   </si>
@@ -67,42 +64,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -115,25 +89,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,188 +399,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
+    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
+    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
